--- a/biology/Zoologie/Argyrophis_diardii/Argyrophis_diardii.xlsx
+++ b/biology/Zoologie/Argyrophis_diardii/Argyrophis_diardii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyrophis diardii est une espèce de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrophis diardii est une espèce de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Pakistan ;
 en Inde en Assam e en Arunachal Pradesh ;
 au Népal ;
@@ -554,9 +568,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (26 août 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (26 août 2014) :
 Argyrophis diardii diardii (Schlegel, 1839)
 Argyrophis diardii platyventris (Khan, 1998)</t>
         </is>
@@ -586,9 +602,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Pierre-Médard Diard[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Pierre-Médard Diard.
 </t>
         </is>
       </c>
@@ -617,7 +635,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Khan, 1998 : Notes on Typhlops diardi SCHLEGEL, 1839, with description of a new subspecies (Squamata, Serpentes, Scolecophidia). Pakistan Journal of Zoology, vol. 30, no 3, p. 221-231 (texte intégral).
 Schlegel, 1839 : Abbildungen neuer oder unvollständig bekannter Amphibien, nach der Natur oder dem Leben entworfen und mit einem erläuternden Texte begleitet. Arne and Co., Düsseldorf, p. 1-141 (texte intégral).</t>
